--- a/weekly_schedule_planner.xlsx
+++ b/weekly_schedule_planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{097AEF70-2A97-4780-8466-83246A30C2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3B2F7C3-5EED-4264-9078-52C9AFF9C04F}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{097AEF70-2A97-4780-8466-83246A30C2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE5F128-2FF0-45C6-85D2-F73D871D1C79}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4935" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-67320" yWindow="-10185" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly schedule planner" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Weekly schedule planner</t>
   </si>
@@ -51,27 +51,6 @@
     <t>Deadlines this week</t>
   </si>
   <si>
-    <t>Run 3 miles</t>
-  </si>
-  <si>
-    <t>Take FiFi to vet</t>
-  </si>
-  <si>
-    <t>Presentation on Thursday</t>
-  </si>
-  <si>
-    <t>Read 30 min/day</t>
-  </si>
-  <si>
-    <t>Go grocery shopping</t>
-  </si>
-  <si>
-    <t>Stretch</t>
-  </si>
-  <si>
-    <t>Pick up dry cleaning</t>
-  </si>
-  <si>
     <t>✔</t>
   </si>
   <si>
@@ -81,25 +60,25 @@
     <t>✖</t>
   </si>
   <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Go to vet</t>
-  </si>
-  <si>
-    <t>Shopping</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Rehearse</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>what is our objectives</t>
+  </si>
+  <si>
+    <t>what is our current tasks</t>
+  </si>
+  <si>
+    <t>when is this due</t>
+  </si>
+  <si>
+    <t>blockers</t>
+  </si>
+  <si>
+    <t>completions</t>
   </si>
 </sst>
 </file>
@@ -985,14 +964,146 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1026,138 +1137,6 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -5862,7 +5841,7 @@
   <dimension ref="A1:AP43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7:AM7"/>
+      <selection activeCell="AI20" sqref="AI20:AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5919,11 +5898,11 @@
       <c r="AM1" s="13"/>
       <c r="AN1" s="10"/>
       <c r="AO1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AP1"/>
     </row>
-    <row r="2" spans="1:42" s="23" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:42" s="23" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
@@ -5968,45 +5947,45 @@
       <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="1:42" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -6025,21 +6004,21 @@
       <c r="N4" s="15"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="66">
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="71">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
         <v>45425</v>
       </c>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
@@ -6104,49 +6083,49 @@
     <row r="6" spans="1:42" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83"/>
       <c r="N6" s="15"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="49"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="85"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
-      <c r="AC6" s="45" t="s">
+      <c r="AC6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="49"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="85"/>
       <c r="AN6" s="26"/>
       <c r="AO6" s="27"/>
       <c r="AP6" s="27"/>
@@ -6154,49 +6133,49 @@
     <row r="7" spans="1:42" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="67" t="s">
-        <v>5</v>
+      <c r="C7" s="46" t="s">
+        <v>10</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="16"/>
       <c r="O7" s="17"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="54" t="s">
-        <v>6</v>
+      <c r="Q7" s="72" t="s">
+        <v>11</v>
       </c>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="55"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="73"/>
       <c r="AA7" s="17"/>
       <c r="AB7" s="17"/>
-      <c r="AC7" s="67" t="s">
-        <v>7</v>
+      <c r="AC7" s="46" t="s">
+        <v>12</v>
       </c>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="69"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="48"/>
       <c r="AN7" s="14"/>
       <c r="AO7"/>
       <c r="AP7"/>
@@ -6204,47 +6183,43 @@
     <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="5"/>
       <c r="O8" s="4"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="58"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="60"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="72"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="51"/>
       <c r="AN8" s="14"/>
       <c r="AO8"/>
       <c r="AP8"/>
@@ -6252,47 +6227,43 @@
     <row r="9" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="5"/>
       <c r="O9" s="4"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="58"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="60"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="72"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="51"/>
       <c r="AN9" s="14"/>
       <c r="AO9"/>
       <c r="AP9"/>
@@ -6300,43 +6271,43 @@
     <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
       <c r="N10" s="5"/>
       <c r="O10" s="4"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="58"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="60"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="72"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="51"/>
       <c r="AN10" s="14"/>
       <c r="AO10"/>
       <c r="AP10"/>
@@ -6344,43 +6315,43 @@
     <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="5"/>
       <c r="O11" s="4"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="58"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="60"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="71"/>
-      <c r="AM11" s="72"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="51"/>
       <c r="AN11" s="14"/>
       <c r="AO11"/>
       <c r="AP11"/>
@@ -6388,43 +6359,43 @@
     <row r="12" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="5"/>
       <c r="O12" s="4"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="62"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="85"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="54"/>
       <c r="AN12" s="14"/>
       <c r="AO12"/>
       <c r="AP12"/>
@@ -6520,84 +6491,84 @@
     <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="86" t="str">
+      <c r="C15" s="55" t="str">
         <f ca="1">TEXT(StartDate+0,"dd")</f>
         <v>13</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="76" t="str">
+      <c r="D15" s="56"/>
+      <c r="E15" s="63" t="str">
         <f ca="1">(TEXT(StartDate+0,"aaaa"))</f>
         <v>Monday</v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="74" t="str">
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="44" t="str">
         <f ca="1">TEXT(StartDate+1,"dd")</f>
         <v>14</v>
       </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="76" t="str">
+      <c r="J15" s="44"/>
+      <c r="K15" s="63" t="str">
         <f ca="1">(TEXT(StartDate+1,"aaaa"))</f>
         <v>Tuesday</v>
       </c>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="74" t="str">
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="44" t="str">
         <f ca="1">TEXT(StartDate+2,"dd")</f>
         <v>15</v>
       </c>
-      <c r="O15" s="74"/>
-      <c r="P15" s="76" t="str">
+      <c r="O15" s="44"/>
+      <c r="P15" s="63" t="str">
         <f ca="1">(TEXT(StartDate+2,"aaaa"))</f>
         <v>Wednesday</v>
       </c>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="74" t="str">
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="44" t="str">
         <f ca="1">TEXT(StartDate+3,"dd")</f>
         <v>16</v>
       </c>
-      <c r="T15" s="74"/>
-      <c r="U15" s="76" t="str">
+      <c r="T15" s="44"/>
+      <c r="U15" s="63" t="str">
         <f ca="1">(TEXT(StartDate+3,"aaaa"))</f>
         <v>Thursday</v>
       </c>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="74" t="str">
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="44" t="str">
         <f ca="1">TEXT(StartDate+4,"dd")</f>
         <v>17</v>
       </c>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="76" t="str">
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="63" t="str">
         <f ca="1">(TEXT(StartDate+4,"aaaa"))</f>
         <v>Friday</v>
       </c>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="74" t="str">
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="44" t="str">
         <f ca="1">TEXT(StartDate+5,"dd")</f>
         <v>18</v>
       </c>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="76" t="str">
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="63" t="str">
         <f ca="1">(TEXT(StartDate+5,"aaaa"))</f>
         <v>Saturday</v>
       </c>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="74" t="str">
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="44" t="str">
         <f ca="1">TEXT(StartDate+6,"dd")</f>
         <v>19</v>
       </c>
-      <c r="AI15" s="74"/>
-      <c r="AJ15" s="76" t="str">
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="63" t="str">
         <f ca="1">(TEXT(StartDate+6,"aaaa"))</f>
         <v>Sunday</v>
       </c>
-      <c r="AK15" s="77"/>
-      <c r="AL15" s="77"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
       <c r="AM15" s="39"/>
       <c r="AN15" s="14"/>
       <c r="AO15"/>
@@ -6606,63 +6577,63 @@
     <row r="16" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="78" t="str">
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="65" t="str">
         <f ca="1">(TEXT(StartDate+0,"mmmm"))</f>
         <v>May</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="78" t="str">
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="65" t="str">
         <f ca="1">(TEXT(StartDate+1,"mmmm"))</f>
         <v>May</v>
       </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="78" t="str">
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="65" t="str">
         <f ca="1">(TEXT(StartDate+2,"mmmm"))</f>
         <v>May</v>
       </c>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="78" t="str">
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="65" t="str">
         <f ca="1">(TEXT(StartDate+3,"mmmm"))</f>
         <v>May</v>
       </c>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="78" t="str">
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="65" t="str">
         <f ca="1">(TEXT(StartDate+4,"mmmm"))</f>
         <v>May</v>
       </c>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="78" t="str">
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="65" t="str">
         <f ca="1">(TEXT(StartDate+5,"mmmm"))</f>
         <v>May</v>
       </c>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="78" t="str">
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="65" t="str">
         <f ca="1">(TEXT(StartDate+6,"mmmm"))</f>
         <v>May</v>
       </c>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="79"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
       <c r="AM16" s="40"/>
       <c r="AN16" s="14"/>
       <c r="AO16"/>
@@ -6672,61 +6643,51 @@
       <c r="A17"/>
       <c r="B17" s="14"/>
       <c r="C17" s="36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>13</v>
+      <c r="D17" s="67" t="s">
+        <v>6</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="37" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
-      <c r="J17" s="41" t="s">
-        <v>13</v>
+      <c r="J17" s="67" t="s">
+        <v>6</v>
       </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
       <c r="N17" s="37" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
-      <c r="O17" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
       <c r="S17" s="37"/>
-      <c r="T17" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
       <c r="X17" s="37"/>
-      <c r="Y17" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
       <c r="AC17" s="37"/>
-      <c r="AD17" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="67"/>
       <c r="AH17" s="37"/>
-      <c r="AI17" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
+      <c r="AI17" s="67"/>
+      <c r="AJ17" s="67"/>
+      <c r="AK17" s="67"/>
+      <c r="AL17" s="67"/>
       <c r="AM17" s="38"/>
       <c r="AN17" s="14"/>
       <c r="AO17"/>
@@ -6736,61 +6697,49 @@
       <c r="A18"/>
       <c r="B18" s="14"/>
       <c r="C18" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
-      <c r="D18" s="42" t="s">
-        <v>15</v>
+      <c r="D18" s="69" t="s">
+        <v>13</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="65"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
       <c r="I18" s="33" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
-      <c r="J18" s="42" t="s">
-        <v>15</v>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="33" t="s">
+        <v>5</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
       <c r="S18" s="33"/>
-      <c r="T18" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
       <c r="X18" s="33"/>
-      <c r="Y18" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="69"/>
       <c r="AC18" s="33"/>
-      <c r="AD18" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
       <c r="AH18" s="33"/>
-      <c r="AI18" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="42"/>
-      <c r="AL18" s="42"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="69"/>
       <c r="AM18" s="34"/>
       <c r="AN18" s="14"/>
       <c r="AO18"/>
@@ -6800,61 +6749,49 @@
       <c r="A19"/>
       <c r="B19" s="14"/>
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="33" t="s">
+      <c r="D19" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="42" t="s">
-        <v>10</v>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="33" t="s">
+        <v>5</v>
       </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
       <c r="S19" s="33"/>
-      <c r="T19" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
       <c r="X19" s="33"/>
-      <c r="Y19" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
       <c r="AC19" s="33"/>
-      <c r="AD19" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69"/>
       <c r="AH19" s="33"/>
-      <c r="AI19" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="69"/>
       <c r="AM19" s="34"/>
       <c r="AN19" s="14"/>
       <c r="AO19"/>
@@ -6864,52 +6801,46 @@
       <c r="A20"/>
       <c r="B20" s="14"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="65"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
       <c r="I20" s="33" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
-      <c r="J20" s="42" t="s">
-        <v>16</v>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="33" t="s">
+        <v>5</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
       <c r="S20" s="33"/>
-      <c r="T20" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
       <c r="X20" s="33"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="69"/>
       <c r="AC20" s="33"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="69"/>
       <c r="AH20" s="33"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="64"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="69"/>
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="78"/>
       <c r="AN20" s="14"/>
       <c r="AO20"/>
       <c r="AP20"/>
@@ -6918,46 +6849,44 @@
       <c r="A21"/>
       <c r="B21" s="14"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="65"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="33"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
       <c r="N21" s="33" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
-      <c r="O21" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
       <c r="S21" s="33"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
       <c r="X21" s="33"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="69"/>
       <c r="AC21" s="33"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
+      <c r="AD21" s="69"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="69"/>
       <c r="AH21" s="33"/>
-      <c r="AI21" s="42"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="42"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="64"/>
+      <c r="AI21" s="69"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="69"/>
+      <c r="AM21" s="78"/>
       <c r="AN21" s="14"/>
       <c r="AO21"/>
       <c r="AP21"/>
@@ -6966,42 +6895,42 @@
       <c r="A22"/>
       <c r="B22" s="14"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
       <c r="N22" s="33"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
       <c r="S22" s="33"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
       <c r="X22" s="33"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="69"/>
       <c r="AC22" s="33"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
       <c r="AH22" s="33"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="64"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="69"/>
+      <c r="AL22" s="69"/>
+      <c r="AM22" s="78"/>
       <c r="AN22" s="14"/>
       <c r="AO22"/>
       <c r="AP22"/>
@@ -7010,42 +6939,42 @@
       <c r="A23"/>
       <c r="B23" s="14"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
       <c r="N23" s="33"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
       <c r="S23" s="33"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
       <c r="X23" s="33"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="69"/>
       <c r="AC23" s="33"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
+      <c r="AD23" s="69"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="69"/>
+      <c r="AG23" s="69"/>
       <c r="AH23" s="33"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="64"/>
+      <c r="AI23" s="69"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="69"/>
+      <c r="AL23" s="69"/>
+      <c r="AM23" s="78"/>
       <c r="AN23" s="14"/>
       <c r="AO23"/>
       <c r="AP23"/>
@@ -7054,42 +6983,42 @@
       <c r="A24"/>
       <c r="B24" s="14"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="33"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
       <c r="N24" s="33"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
       <c r="S24" s="33"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
       <c r="X24" s="33"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="69"/>
       <c r="AC24" s="33"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
+      <c r="AD24" s="69"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="69"/>
       <c r="AH24" s="33"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="64"/>
+      <c r="AI24" s="69"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="69"/>
+      <c r="AL24" s="69"/>
+      <c r="AM24" s="78"/>
       <c r="AN24" s="14"/>
       <c r="AO24"/>
       <c r="AP24"/>
@@ -7098,42 +7027,42 @@
       <c r="A25"/>
       <c r="B25" s="14"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="33"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
       <c r="N25" s="33"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="33"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
       <c r="X25" s="33"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="69"/>
       <c r="AC25" s="33"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="69"/>
+      <c r="AF25" s="69"/>
+      <c r="AG25" s="69"/>
       <c r="AH25" s="33"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="64"/>
+      <c r="AI25" s="69"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="69"/>
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="78"/>
       <c r="AN25" s="14"/>
       <c r="AO25"/>
       <c r="AP25"/>
@@ -7142,42 +7071,42 @@
       <c r="A26"/>
       <c r="B26" s="14"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
       <c r="I26" s="33"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
       <c r="N26" s="33"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
       <c r="S26" s="33"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
       <c r="X26" s="33"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="69"/>
       <c r="AC26" s="33"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="69"/>
       <c r="AH26" s="33"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="64"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="69"/>
+      <c r="AL26" s="69"/>
+      <c r="AM26" s="78"/>
       <c r="AN26" s="14"/>
       <c r="AO26"/>
       <c r="AP26"/>
@@ -7186,42 +7115,42 @@
       <c r="A27"/>
       <c r="B27" s="14"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="33"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
       <c r="N27" s="33"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
       <c r="S27" s="33"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
       <c r="X27" s="33"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
       <c r="AC27" s="33"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="69"/>
       <c r="AH27" s="33"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="64"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="69"/>
+      <c r="AL27" s="69"/>
+      <c r="AM27" s="78"/>
       <c r="AN27" s="14"/>
       <c r="AO27"/>
       <c r="AP27"/>
@@ -7230,42 +7159,42 @@
       <c r="A28"/>
       <c r="B28" s="14"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
       <c r="I28" s="33"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
       <c r="N28" s="33"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
       <c r="S28" s="33"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
       <c r="X28" s="33"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
       <c r="AC28" s="33"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
       <c r="AH28" s="33"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="64"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="78"/>
       <c r="AN28" s="14"/>
       <c r="AO28"/>
       <c r="AP28"/>
@@ -7274,42 +7203,42 @@
       <c r="A29"/>
       <c r="B29" s="14"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="33"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
       <c r="N29" s="33"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
       <c r="S29" s="33"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
       <c r="X29" s="33"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
       <c r="AC29" s="33"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="69"/>
       <c r="AH29" s="33"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="64"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="69"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="78"/>
       <c r="AN29" s="14"/>
       <c r="AO29"/>
       <c r="AP29"/>
@@ -7318,42 +7247,42 @@
       <c r="A30"/>
       <c r="B30" s="14"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
       <c r="I30" s="33"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
       <c r="N30" s="33"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
       <c r="S30" s="33"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
       <c r="X30" s="33"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
       <c r="AC30" s="33"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="69"/>
       <c r="AH30" s="33"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="64"/>
+      <c r="AI30" s="69"/>
+      <c r="AJ30" s="69"/>
+      <c r="AK30" s="69"/>
+      <c r="AL30" s="69"/>
+      <c r="AM30" s="78"/>
       <c r="AN30" s="14"/>
       <c r="AO30"/>
       <c r="AP30"/>
@@ -7362,42 +7291,42 @@
       <c r="A31"/>
       <c r="B31" s="14"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="35"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
       <c r="S31" s="35"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
       <c r="X31" s="35"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
       <c r="AC31" s="35"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="74"/>
+      <c r="AG31" s="74"/>
       <c r="AH31" s="35"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="63"/>
+      <c r="AI31" s="74"/>
+      <c r="AJ31" s="74"/>
+      <c r="AK31" s="74"/>
+      <c r="AL31" s="74"/>
+      <c r="AM31" s="77"/>
       <c r="AN31" s="14"/>
       <c r="AO31"/>
       <c r="AP31"/>
@@ -7493,45 +7422,45 @@
     <row r="34" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="50" t="s">
-        <v>20</v>
+      <c r="C34" s="86" t="s">
+        <v>8</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51"/>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="52"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="87"/>
+      <c r="AE34" s="87"/>
+      <c r="AF34" s="87"/>
+      <c r="AG34" s="87"/>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="87"/>
+      <c r="AJ34" s="87"/>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="87"/>
+      <c r="AM34" s="88"/>
       <c r="AN34" s="14"/>
       <c r="AO34"/>
       <c r="AP34"/>
@@ -7539,43 +7468,43 @@
     <row r="35" spans="1:42" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="54"/>
-      <c r="AM35" s="55"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="72"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="72"/>
+      <c r="AM35" s="73"/>
       <c r="AN35" s="14"/>
       <c r="AO35"/>
       <c r="AP35"/>
@@ -7583,43 +7512,43 @@
     <row r="36" spans="1:42" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="81"/>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="81"/>
-      <c r="AF36" s="81"/>
-      <c r="AG36" s="81"/>
-      <c r="AH36" s="81"/>
-      <c r="AI36" s="81"/>
-      <c r="AJ36" s="81"/>
-      <c r="AK36" s="81"/>
-      <c r="AL36" s="81"/>
-      <c r="AM36" s="82"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
+      <c r="AL36" s="42"/>
+      <c r="AM36" s="43"/>
       <c r="AN36" s="14"/>
       <c r="AO36"/>
       <c r="AP36"/>
@@ -7627,43 +7556,43 @@
     <row r="37" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57"/>
-      <c r="AE37" s="57"/>
-      <c r="AF37" s="57"/>
-      <c r="AG37" s="57"/>
-      <c r="AH37" s="57"/>
-      <c r="AI37" s="57"/>
-      <c r="AJ37" s="57"/>
-      <c r="AK37" s="57"/>
-      <c r="AL37" s="57"/>
-      <c r="AM37" s="58"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="60"/>
       <c r="AN37" s="14"/>
       <c r="AO37"/>
       <c r="AP37"/>
@@ -7671,43 +7600,43 @@
     <row r="38" spans="1:42" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="60"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="60"/>
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="60"/>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
-      <c r="AF38" s="60"/>
-      <c r="AG38" s="60"/>
-      <c r="AH38" s="60"/>
-      <c r="AI38" s="60"/>
-      <c r="AJ38" s="60"/>
-      <c r="AK38" s="60"/>
-      <c r="AL38" s="60"/>
-      <c r="AM38" s="61"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61"/>
+      <c r="AF38" s="61"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="61"/>
+      <c r="AK38" s="61"/>
+      <c r="AL38" s="61"/>
+      <c r="AM38" s="62"/>
       <c r="AN38" s="14"/>
       <c r="AO38"/>
       <c r="AP38"/>
@@ -7846,6 +7775,137 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="155">
+    <mergeCell ref="AI17:AL17"/>
+    <mergeCell ref="AI18:AL18"/>
+    <mergeCell ref="AI19:AL19"/>
+    <mergeCell ref="C3:AM3"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="P6:Z6"/>
+    <mergeCell ref="AC6:AM6"/>
+    <mergeCell ref="C34:AM34"/>
+    <mergeCell ref="C35:AM35"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="C37:AM37"/>
+    <mergeCell ref="C38:AM38"/>
+    <mergeCell ref="AI31:AM31"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AI20:AM20"/>
+    <mergeCell ref="AI21:AM21"/>
+    <mergeCell ref="AI22:AM22"/>
+    <mergeCell ref="AI23:AM23"/>
+    <mergeCell ref="AI24:AM24"/>
+    <mergeCell ref="AI25:AM25"/>
+    <mergeCell ref="AI26:AM26"/>
+    <mergeCell ref="AI27:AM27"/>
+    <mergeCell ref="AI28:AM28"/>
+    <mergeCell ref="AI29:AM29"/>
+    <mergeCell ref="AI30:AM30"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="Q7:Z7"/>
+    <mergeCell ref="Q8:Z8"/>
+    <mergeCell ref="Q9:Z9"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="AC7:AM7"/>
+    <mergeCell ref="AC8:AM8"/>
+    <mergeCell ref="AC9:AM9"/>
+    <mergeCell ref="AC10:AM10"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
     <mergeCell ref="C36:AM36"/>
     <mergeCell ref="AH15:AI16"/>
     <mergeCell ref="C7:M7"/>
@@ -7870,137 +7930,6 @@
     <mergeCell ref="AJ15:AL15"/>
     <mergeCell ref="AJ16:AL16"/>
     <mergeCell ref="D17:H17"/>
-    <mergeCell ref="AC7:AM7"/>
-    <mergeCell ref="AC8:AM8"/>
-    <mergeCell ref="AC9:AM9"/>
-    <mergeCell ref="AC10:AM10"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="Q7:Z7"/>
-    <mergeCell ref="Q8:Z8"/>
-    <mergeCell ref="Q9:Z9"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="C37:AM37"/>
-    <mergeCell ref="C38:AM38"/>
-    <mergeCell ref="AI31:AM31"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AD31:AG31"/>
-    <mergeCell ref="AI20:AM20"/>
-    <mergeCell ref="AI21:AM21"/>
-    <mergeCell ref="AI22:AM22"/>
-    <mergeCell ref="AI23:AM23"/>
-    <mergeCell ref="AI24:AM24"/>
-    <mergeCell ref="AI25:AM25"/>
-    <mergeCell ref="AI26:AM26"/>
-    <mergeCell ref="AI27:AM27"/>
-    <mergeCell ref="AI28:AM28"/>
-    <mergeCell ref="AI29:AM29"/>
-    <mergeCell ref="AI30:AM30"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AI17:AL17"/>
-    <mergeCell ref="AI18:AL18"/>
-    <mergeCell ref="AI19:AL19"/>
-    <mergeCell ref="C3:AM3"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="P6:Z6"/>
-    <mergeCell ref="AC6:AM6"/>
-    <mergeCell ref="C34:AM34"/>
-    <mergeCell ref="C35:AM35"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="AD21:AG21"/>
   </mergeCells>
   <conditionalFormatting sqref="C17:H31">
     <cfRule type="expression" dxfId="8" priority="26">
@@ -8372,6 +8301,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -8389,15 +8327,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8422,6 +8351,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7A1AD99-D1C5-4F0A-B68D-76D2F78DDEA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5412D88-CD3F-4013-A8F4-3757FAAA99F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8433,14 +8370,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7A1AD99-D1C5-4F0A-B68D-76D2F78DDEA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>